--- a/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>17.67669272135759</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>14.97581609443536</v>
+        <v>14.97581609443535</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.214337207278717</v>
@@ -664,7 +664,7 @@
         <v>12.48397211040604</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.944773822338849</v>
+        <v>9.94477382233886</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01863462646744282</v>
+        <v>0.04035040559127993</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.06454190418115438</v>
+        <v>0.2839840627456066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.796062210926064</v>
+        <v>-1.78415328940825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.98076979527381</v>
+        <v>3.5232733201798</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>9.448852373202254</v>
+        <v>10.30724378739257</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.929599454507076</v>
+        <v>7.840669738936376</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.146584345683293</v>
+        <v>3.900187601881056</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.90452882944113</v>
+        <v>7.230184201678594</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.208853057698981</v>
+        <v>4.882419537842859</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.05109671998913</v>
+        <v>13.7680045159289</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.63737390929316</v>
+        <v>14.31883081163782</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.66618435967805</v>
+        <v>12.2831406720035</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.21362954208475</v>
+        <v>19.35806202240504</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>25.10520331133521</v>
+        <v>25.11868244040665</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.23541472466622</v>
+        <v>21.21809502743474</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.49253064096949</v>
+        <v>14.50146352564951</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.71505198668411</v>
+        <v>17.36218872176272</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.5352074376611</v>
+        <v>14.70155183309715</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.8506112089204318</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7206436879035922</v>
+        <v>0.720643687903592</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4511842535217326</v>
@@ -769,7 +769,7 @@
         <v>0.6112834283045685</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4869504178694531</v>
+        <v>0.4869504178694537</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0007598669558700525</v>
+        <v>-0.01230210679222955</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.008086443926708393</v>
+        <v>0.01382213829153313</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.08012297693573867</v>
+        <v>-0.08148243767023973</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1191612133359246</v>
+        <v>0.1192646129984885</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3633053854384951</v>
+        <v>0.4189442430497389</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2961911973410512</v>
+        <v>0.3102415573752524</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1470826803435127</v>
+        <v>0.1698233519927623</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2858721233902635</v>
+        <v>0.3198030430649547</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2253571881111986</v>
+        <v>0.2015070218865959</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8898060205782226</v>
+        <v>0.8206011162061732</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.878145779695137</v>
+        <v>0.8816549391110374</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7074901837654848</v>
+        <v>0.7058399403872927</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.128815097568658</v>
+        <v>1.066551288493576</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.501595474147159</v>
+        <v>1.476472369015139</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.243598934760658</v>
+        <v>1.261958184121811</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8175613410169797</v>
+        <v>0.8038355901137242</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9731035082995851</v>
+        <v>1.002455147052352</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8447272081561787</v>
+        <v>0.8369156683881831</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-18.49564982589772</v>
+        <v>-18.47880502236328</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.23664521626699</v>
+        <v>-15.92495058248296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.71919941732131</v>
+        <v>-17.60319921324538</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-20.36179367809125</v>
+        <v>-20.70201144532648</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-20.39252401196293</v>
+        <v>-20.32090169375756</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-19.81318393364964</v>
+        <v>-20.28635935018992</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-18.45281968793877</v>
+        <v>-18.01432152896991</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-16.2948125161237</v>
+        <v>-16.41245860163918</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-17.40626433938367</v>
+        <v>-17.38590137577718</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-9.325193362782604</v>
+        <v>-8.515356824721463</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.702238028278276</v>
+        <v>-5.878547250726553</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-7.659090145555528</v>
+        <v>-7.43368963925142</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-9.44652881493354</v>
+        <v>-9.859698457412772</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-9.031208510409149</v>
+        <v>-9.076370653366356</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-9.778134720011684</v>
+        <v>-9.822067753429859</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-11.1481772581421</v>
+        <v>-10.61599685641912</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-9.188778384255487</v>
+        <v>-8.779625116023389</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-10.30748578421371</v>
+        <v>-10.13448433789847</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4577142313122034</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.5341328430913426</v>
+        <v>-0.5341328430913425</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.4615258461177869</v>
@@ -974,7 +974,7 @@
         <v>-0.433335698328346</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.448415501982997</v>
+        <v>-0.4484155019829968</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.512348718639125</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7105489613602562</v>
+        <v>-0.7121510172587466</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5818428479795585</v>
+        <v>-0.5989403361639818</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6694338512883233</v>
+        <v>-0.6598525381141286</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5624827232059709</v>
+        <v>-0.5645950214632819</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5624103846726437</v>
+        <v>-0.5575184462167798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.54896062462506</v>
+        <v>-0.5461625575830307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.60206032440039</v>
+        <v>-0.5881105484847794</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5356247038179256</v>
+        <v>-0.5421509626559781</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5637174618657186</v>
+        <v>-0.5643922195957848</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.4326745582010319</v>
+        <v>-0.4132319011147164</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2746475743226389</v>
+        <v>-0.2878128813882358</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3650399379269157</v>
+        <v>-0.3462234038464087</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.3110851990733026</v>
+        <v>-0.324680970330808</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3072028004224498</v>
+        <v>-0.2932536099071036</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3265055987395084</v>
+        <v>-0.3248509183044316</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.4142077614657549</v>
+        <v>-0.3989764971534994</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3471064603545104</v>
+        <v>-0.3323002935923129</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.3832470114579212</v>
+        <v>-0.3735154388127943</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>3.544843741991771</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.903487273126874</v>
+        <v>-3.903487273126877</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.568384823574309</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.696372519955535</v>
+        <v>-1.67950273555817</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.839127408526311</v>
+        <v>3.846210157666902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6040379563030177</v>
+        <v>-0.5175873593849033</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.901426131681403</v>
+        <v>-7.053828892887055</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.999560621997502</v>
+        <v>-2.701260568301222</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.55112933020288</v>
+        <v>-9.568683397293833</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.415354983243605</v>
+        <v>-2.429257089041991</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.062060830674899</v>
+        <v>2.255236243134737</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.685202217177862</v>
+        <v>-3.593200331245867</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.911282766834416</v>
+        <v>9.304529807811523</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.02006950239847</v>
+        <v>15.27304918847452</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.747042490936909</v>
+        <v>9.86243914976906</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.885974028603344</v>
+        <v>5.400370732926883</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.759970032107866</v>
+        <v>9.733230695808428</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.730778686279358</v>
+        <v>1.168859908687013</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.887199629104167</v>
+        <v>5.642784406837655</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.00353327150873</v>
+        <v>10.94311382780688</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.672151637878208</v>
+        <v>3.67175806144039</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1699370863475038</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1871301817712911</v>
+        <v>-0.1871301817712912</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.09687046382064338</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1293145364922872</v>
+        <v>-0.1328695035566375</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2439251700786187</v>
+        <v>0.2690405717886988</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.04815264346177318</v>
+        <v>-0.06575116474081012</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2821847846013076</v>
+        <v>-0.2994279945708293</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1318046224195009</v>
+        <v>-0.1262254875078505</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3960096630580425</v>
+        <v>-0.3945762386585644</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1406153180246873</v>
+        <v>-0.1328089760649089</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1185985200952636</v>
+        <v>0.1264644121114026</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2026483615767066</v>
+        <v>-0.1967076410165431</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.002194615541284</v>
+        <v>1.044977737139049</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.63949481286841</v>
+        <v>1.744458725790591</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.114385375665906</v>
+        <v>1.129358806372926</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3325838076194897</v>
+        <v>0.2959664970545899</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5167990248677624</v>
+        <v>0.5332534616222648</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03993681513085633</v>
+        <v>0.07483364060006445</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.403051221669099</v>
+        <v>0.3938978375083382</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7683773099038858</v>
+        <v>0.7611065473185065</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2515042914289335</v>
+        <v>0.256701668589635</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5502631166244744</v>
+        <v>-0.4854503566543833</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.589643031188169</v>
+        <v>1.044406817666565</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.922867962120678</v>
+        <v>-1.894260749517889</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.476735311440525</v>
+        <v>5.036249223878704</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.863725565045296</v>
+        <v>-6.432230427301398</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-11.0343758619034</v>
+        <v>-11.26726025185707</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.274864793475215</v>
+        <v>4.489110707736174</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.146620402364131</v>
+        <v>-0.6364066477797067</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.407900501253827</v>
+        <v>-5.183721122896708</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.49842826155494</v>
+        <v>10.05864610495835</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.59434589067556</v>
+        <v>11.89024602461977</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.588840054903054</v>
+        <v>10.55576942470419</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.43878697991463</v>
+        <v>18.8374947635282</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.985391255378246</v>
+        <v>7.295611261369124</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1914374002720369</v>
+        <v>0.3624103048264717</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.82915681384013</v>
+        <v>13.56574158009907</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.206455800064989</v>
+        <v>8.294566735206239</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.994244472958065</v>
+        <v>3.62354450087113</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05025904838771172</v>
+        <v>-0.03528426918082572</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.06924182901805682</v>
+        <v>0.0500696662452251</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1246885186806265</v>
+        <v>-0.1339082219198782</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1833078539121657</v>
+        <v>0.173870966350718</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1955841612742756</v>
+        <v>-0.2099075571183736</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3676107339076534</v>
+        <v>-0.379113052236685</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1938387195833739</v>
+        <v>0.1968415286931654</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05280879980542017</v>
+        <v>-0.0285240321861066</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2059151058029607</v>
+        <v>-0.2291547763817326</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9397075452130564</v>
+        <v>0.8972712512726853</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.074141427186466</v>
+        <v>1.028539566143782</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8311009186974321</v>
+        <v>0.8864288573849728</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7756415481962063</v>
+        <v>0.8166209678474964</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2891849779109671</v>
+        <v>0.3120044218163888</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.004402539713297586</v>
+        <v>0.01654242651781388</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7136773690713553</v>
+        <v>0.7412593686704866</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4350515913689588</v>
+        <v>0.4476762450678489</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.22369180538289</v>
+        <v>0.1965057504020647</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-16.92630407602017</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.277764615953002</v>
+        <v>6.277764615952991</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-14.49039653755495</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-25.81224311349411</v>
+        <v>-25.92791690278622</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-20.82631824007311</v>
+        <v>-20.70553131638095</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.761474529143103</v>
+        <v>-6.016313578716471</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-21.15699528255373</v>
+        <v>-21.32898335232875</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-26.61268039989746</v>
+        <v>-26.76329638764875</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.894379472918071</v>
+        <v>-2.028860711355177</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-20.8317334743904</v>
+        <v>-20.71294308469244</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-20.9348873150921</v>
+        <v>-20.59075083444866</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.192058996586567</v>
+        <v>-1.645484118550127</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-9.515236263358657</v>
+        <v>-8.973891496424146</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.247967403735704</v>
+        <v>-2.974411629421179</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.19091351628927</v>
+        <v>11.49715088733252</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.726976218646377</v>
+        <v>-1.961432134313783</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-8.040016931559748</v>
+        <v>-7.183835221895431</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.03431160043472</v>
+        <v>14.67505846122226</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-7.850727224166373</v>
+        <v>-8.059704172497277</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-8.159501880939755</v>
+        <v>-8.001937350187003</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.80389367077979</v>
+        <v>10.56628553402393</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.3812245012053744</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1413916277087317</v>
+        <v>0.1413916277087315</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3702988112255038</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6860385463014694</v>
+        <v>-0.6831119804259999</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5416665165795559</v>
+        <v>-0.5326685778477955</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1514336615752555</v>
+        <v>-0.1528663579039897</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4322692862327221</v>
+        <v>-0.4344184479168978</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5365536555407037</v>
+        <v>-0.53892327343268</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.05755668481045192</v>
+        <v>-0.04202835075124774</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4946403444390849</v>
+        <v>-0.4920451303264488</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4954567405822379</v>
+        <v>-0.4908366858140423</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.02739678438965856</v>
+        <v>-0.03532311077107243</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3189513224989614</v>
+        <v>-0.309699528720224</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1342873711476053</v>
+        <v>-0.1054142722894107</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4201262446770704</v>
+        <v>0.4141715427709119</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.04550596627971246</v>
+        <v>-0.04169129473602471</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1998700404111861</v>
+        <v>-0.1876997016489943</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3541405005276601</v>
+        <v>0.3780217095301755</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.2243879300161658</v>
+        <v>-0.2241134975963384</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2355840301053769</v>
+        <v>-0.2247622721636493</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3051720561201665</v>
+        <v>0.3008284241344639</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>0.2697549656118625</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3.735374607945002</v>
+        <v>3.735374607944999</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-10.25561407778003</v>
@@ -1725,7 +1725,7 @@
         <v>-9.556023228539098</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-11.9065075680645</v>
+        <v>-11.90650756806451</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-4.089212263548123</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.354171502474542</v>
+        <v>-2.684162557340842</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.2542751740836</v>
+        <v>-5.325901448779775</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.533082372836511</v>
+        <v>-2.114784914771196</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-16.94956524614205</v>
+        <v>-16.93253384247576</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-16.74394924847995</v>
+        <v>-16.79552682996125</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-18.53032183176031</v>
+        <v>-18.42258120616366</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-8.589436084860715</v>
+        <v>-8.518377751517468</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-9.354522895494402</v>
+        <v>-9.635149332410036</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.328008038341126</v>
+        <v>-8.559058429695478</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.624790044650149</v>
+        <v>8.752222935677247</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.970792179979478</v>
+        <v>6.051541418040031</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9.240275548396298</v>
+        <v>8.747010076352925</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-3.206228430744759</v>
+        <v>-3.030379230248867</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-2.242462663315933</v>
+        <v>-1.874705546739487</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-6.102300059788855</v>
+        <v>-5.506093999830208</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.4217085285107151</v>
+        <v>0.5185369636250986</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.869000719122423e-05</v>
+        <v>0.2277178886375818</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.2403735735510078</v>
+        <v>-0.2019081636100286</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.02171130071221478</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.3006426265478131</v>
+        <v>0.3006426265478129</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.369940184629485</v>
@@ -1830,7 +1830,7 @@
         <v>-0.3447045657800957</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.4294911620714573</v>
+        <v>-0.4294911620714575</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2026803695289099</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2283538516968542</v>
+        <v>-0.193792352412581</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3604745951534033</v>
+        <v>-0.362551934930214</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1095577667896302</v>
+        <v>-0.1627022348413646</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5372764444330143</v>
+        <v>-0.5515705698809522</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5329837045245642</v>
+        <v>-0.5452377020308944</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5768513642526848</v>
+        <v>-0.5704491685773537</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3820720700494118</v>
+        <v>-0.3800908791232881</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4159420062630709</v>
+        <v>-0.4109034951322543</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3682635187489568</v>
+        <v>-0.3626760049669189</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7613903117711827</v>
+        <v>0.9477134701265441</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5996304408287929</v>
+        <v>0.6451216911700376</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9477753118573119</v>
+        <v>0.8437008533131687</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.1280057595340549</v>
+        <v>-0.1368785314799038</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.08679955939220878</v>
+        <v>-0.08351411087157835</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2564990483705939</v>
+        <v>-0.2250522124262342</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0263506787954491</v>
+        <v>0.03061468885346887</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.008566746481007729</v>
+        <v>0.01784754404204732</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.01400980799318962</v>
+        <v>-0.008380217647258287</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>3.805238305696226</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>6.647694867384296</v>
+        <v>6.647694867384302</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.228480575744158</v>
+        <v>6.29183717066317</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.981530982523894</v>
+        <v>2.593953110870907</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.318197682233556</v>
+        <v>5.571265234123506</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.888643078933507</v>
+        <v>-1.646295761740452</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.847181962493872</v>
+        <v>-3.536940285842247</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.3934995241508725</v>
+        <v>-0.5058067707067058</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.821985480100214</v>
+        <v>3.045466640883605</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.5702420410316776</v>
+        <v>0.7067590998970142</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.620396321023866</v>
+        <v>3.605609899063012</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>14.31991391627666</v>
+        <v>14.67354761604122</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.7126831541457</v>
+        <v>10.09961751836545</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.70547066572487</v>
+        <v>13.81106283476619</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.580129583001964</v>
+        <v>7.774558986145768</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.721119390789636</v>
+        <v>5.746213127801241</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.375901670317667</v>
+        <v>8.102267656549895</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>9.496883037691109</v>
+        <v>9.495777082795916</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>7.081969037304985</v>
+        <v>6.778337510942895</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>9.814055131007018</v>
+        <v>9.629857055412138</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.2276563348375105</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.397712239562337</v>
+        <v>0.3977122395623374</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.5083245533420774</v>
+        <v>0.5188577215714163</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2439040562994786</v>
+        <v>0.2006665642105472</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.421065605649676</v>
+        <v>0.4389836865716902</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.07549483370009454</v>
+        <v>-0.06823782541704507</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1552298595775447</v>
+        <v>-0.1382672135719861</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.01636568274173743</v>
+        <v>-0.02429513329647246</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1540263686667698</v>
+        <v>0.164489383937902</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.03187354506259557</v>
+        <v>0.03578735392796616</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.192608833009192</v>
+        <v>0.1934663347447443</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.702299478498121</v>
+        <v>1.734719860229921</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.209565564471372</v>
+        <v>1.212333994497464</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.62575135062675</v>
+        <v>1.577430663801343</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3655376666179748</v>
+        <v>0.3810239636363971</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2770121691493315</v>
+        <v>0.2809350101486795</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4025815993631676</v>
+        <v>0.3913764515556543</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6146133639468913</v>
+        <v>0.6122953651784414</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4689309218896852</v>
+        <v>0.4371514733229044</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.6415745720390357</v>
+        <v>0.6256792546767508</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>-22.96122301691539</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-19.36833159631225</v>
+        <v>-19.36833159631226</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-16.00463903098895</v>
+        <v>-16.23466951957595</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-26.3046332564444</v>
+        <v>-26.1439672348076</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-22.9388083469714</v>
+        <v>-22.96677907418651</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-18.26339530612804</v>
+        <v>-18.06931001443058</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-27.88642894538737</v>
+        <v>-28.32538383279929</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-23.83205988720951</v>
+        <v>-24.20088966275415</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-15.73276862307268</v>
+        <v>-15.92489332027218</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-25.62499868388927</v>
+        <v>-25.69264785337965</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-22.16557835734816</v>
+        <v>-22.20687777455774</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-7.637984173541298</v>
+        <v>-7.688489078930952</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-18.26401483858404</v>
+        <v>-18.67348715606872</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-15.10660749538124</v>
+        <v>-15.13854171879379</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-9.071574248634521</v>
+        <v>-8.616966112594136</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-19.63819332193809</v>
+        <v>-19.80805508704623</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-15.65537009842195</v>
+        <v>-15.706682406459</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-9.563248962884741</v>
+        <v>-9.420574732607594</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-20.13899042398326</v>
+        <v>-20.07930983613931</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-16.61177307432844</v>
+        <v>-16.43566437717674</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>-0.6849665183879863</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.5777853666913372</v>
+        <v>-0.5777853666913373</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5088679137619087</v>
+        <v>-0.5177160341249125</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8120723885646705</v>
+        <v>-0.8107443074439741</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7201722276177926</v>
+        <v>-0.7180290147689895</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4611280779861037</v>
+        <v>-0.4608435202787973</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.7018132330986249</v>
+        <v>-0.7090395145837795</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5940658096523213</v>
+        <v>-0.5965731550790261</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4564153826344978</v>
+        <v>-0.4553736006775287</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.7354460323919219</v>
+        <v>-0.7337354827917756</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.6300764165012206</v>
+        <v>-0.6263918167535607</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2816392141642985</v>
+        <v>-0.2733723070538728</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.6681478247232532</v>
+        <v>-0.6619766651442039</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.5525612457243203</v>
+        <v>-0.5536731275702316</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.2552683614091287</v>
+        <v>-0.2554752828583791</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.5582156765925502</v>
+        <v>-0.5586683086530084</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.4434460613007052</v>
+        <v>-0.4448286248024517</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.3056096151487817</v>
+        <v>-0.2946167483235315</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.6322896690058168</v>
+        <v>-0.6284991164594323</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.5155990167977679</v>
+        <v>-0.5143389887272576</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>-7.43179882131775</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-6.169714181739355</v>
+        <v>-6.169714181739364</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-3.204114752238105</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-4.245850153240069</v>
+        <v>-4.1451682321309</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-5.660263971219409</v>
+        <v>-5.778020180455004</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-4.39657827185027</v>
+        <v>-4.703181080477516</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-6.219530382279345</v>
+        <v>-6.549892128715544</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-9.627014033753465</v>
+        <v>-9.489244296926989</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-8.07712863320047</v>
+        <v>-8.177808827614097</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-4.82549999158157</v>
+        <v>-4.730184069320733</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-7.090416176613269</v>
+        <v>-6.918047311080556</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-5.892048222008282</v>
+        <v>-5.788024522102242</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.1306160497953325</v>
+        <v>-0.1571960518491973</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-2.00578996647317</v>
+        <v>-2.055720687771499</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-0.7199247148560253</v>
+        <v>-0.8233288217408001</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-2.039953796351417</v>
+        <v>-2.072836416684467</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-5.315740196653342</v>
+        <v>-5.335027092473765</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-4.087838965939753</v>
+        <v>-4.282389079380295</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-1.905817832877097</v>
+        <v>-1.829477210682623</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-4.153434130987771</v>
+        <v>-4.125923679046019</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-3.006135580933006</v>
+        <v>-3.109492846190349</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>-0.2504923108302085</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.2079531483162201</v>
+        <v>-0.2079531483162203</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.1298937554743385</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.207690015286543</v>
+        <v>-0.2017074099651008</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2789421860914674</v>
+        <v>-0.2805273752997271</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2165272561555525</v>
+        <v>-0.2277554550170419</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.2036065711573324</v>
+        <v>-0.2088006806579757</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3130022858626235</v>
+        <v>-0.3090821524522118</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.260972956494116</v>
+        <v>-0.2667816306800885</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.1892803914353171</v>
+        <v>-0.1860477164159776</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2776465041714836</v>
+        <v>-0.2735770916604602</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.2296572412667021</v>
+        <v>-0.2270534678755101</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.01179503458763144</v>
+        <v>-0.007123319005864933</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1075381950318701</v>
+        <v>-0.1086960646977779</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.03896298114376614</v>
+        <v>-0.04315302241785312</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.07054597410310189</v>
+        <v>-0.07135969910867833</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.1860564920047329</v>
+        <v>-0.1872554070666507</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.1447868354189377</v>
+        <v>-0.1503830845189605</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.07998296700862406</v>
+        <v>-0.07772588096603666</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.1741427762017724</v>
+        <v>-0.1739885553342042</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.1258663496283985</v>
+        <v>-0.1289144992340815</v>
       </c>
     </row>
     <row r="58">
